--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FB9E93-EE16-4B08-A551-EFFA52696D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914DF35-569E-4EDE-A40E-C35B650993AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,16 +2312,16 @@
         <v>72</v>
       </c>
       <c r="C24">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D24">
         <v>0.73</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F24">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H24">
         <v>-0.1</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="N24" s="1">
         <f>C24-D24*20-E24*0.8-F24*0.6-H24*5+I24*10+J24/300</f>
-        <v>-12.033333333333335</v>
+        <v>-12.233333333333336</v>
       </c>
       <c r="P24">
         <v>0.14000000000000001</v>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914DF35-569E-4EDE-A40E-C35B650993AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55CBA7A-37E3-4EB6-A79E-C03F80F27BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>new</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>Steyr AUG HBAR 5.56x45 620mm Heavy LMG</t>
+  </si>
+  <si>
+    <t>steyr_aug_457mm_barrel</t>
+  </si>
+  <si>
+    <t>Steyr AUG A3 5.56x45 457mm</t>
   </si>
 </sst>
 </file>
@@ -1117,18 +1123,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="22" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1146,7 +1153,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>2099.6999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1307,7 @@
         <v>1600</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N35" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N36" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>-6.9766666666666675</v>
       </c>
       <c r="P4">
@@ -1310,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S31" si="1">ROUND(Q4*0.033+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S32" si="1">ROUND(Q4*0.033+P4+R4, 2)</f>
         <v>0.84</v>
       </c>
       <c r="U4">
@@ -1325,7 +1332,7 @@
         <v>0.80952380952380965</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>2099.94</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>1979.94</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>1679.94</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1842,7 +1849,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,7 +1905,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>899.69999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2066,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2089,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2138,7 +2145,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2197,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2304,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2452,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2466,13 +2473,13 @@
         <v>0.99</v>
       </c>
       <c r="E28">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F28">
         <v>-7</v>
       </c>
       <c r="H28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I28">
         <v>0.32</v>
@@ -2485,7 +2492,7 @@
       </c>
       <c r="N28" s="1">
         <f>C28-D28*20-E28*0.8-F28*0.6-H28*5+I28*10+J28/300</f>
-        <v>-17.400000000000002</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="P28">
         <v>0.1</v>
@@ -2501,7 +2508,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2509,19 +2516,19 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D29">
         <v>0.76</v>
       </c>
       <c r="E29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F29">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H29">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
       <c r="I29">
         <v>0.24</v>
@@ -2534,7 +2541,7 @@
       </c>
       <c r="N29" s="1">
         <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
-        <v>-10.733333333333331</v>
+        <v>-10.08333333333333</v>
       </c>
       <c r="P29">
         <v>0.1</v>
@@ -2547,246 +2554,293 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D30">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="I30">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J30">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="0"/>
-        <v>-11.1</v>
+        <f t="shared" ref="N30:N31" si="3">C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
+        <v>-10.083333333333334</v>
       </c>
       <c r="P30">
         <v>0.1</v>
       </c>
       <c r="Q30">
-        <v>16.023599999999998</v>
+        <v>17.992100000000001</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0.1</v>
       </c>
-      <c r="I31">
-        <v>-0.04</v>
-      </c>
       <c r="J31">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="M31">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="0"/>
-        <v>-11.466666666666667</v>
+        <f t="shared" si="3"/>
+        <v>-11.1</v>
       </c>
       <c r="P31">
         <v>0.1</v>
       </c>
       <c r="Q31">
-        <v>13.779500000000001</v>
+        <v>16.023599999999998</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>-50</v>
+      </c>
+      <c r="M32">
+        <v>600</v>
+      </c>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33">
-        <v>-1</v>
-      </c>
-      <c r="D33">
-        <v>0.08</v>
-      </c>
-      <c r="E33">
-        <v>-2</v>
-      </c>
-      <c r="F33">
-        <v>-2</v>
-      </c>
-      <c r="M33">
-        <v>750</v>
-      </c>
+        <v>-10.466666666666667</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>13.779500000000001</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N33" s="1">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M34">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="0"/>
-        <v>0.20000000000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.11</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <f>C36-D36*20-E36*0.8-F36*0.6-H36*5+I36*10+J36/300</f>
-        <v>0.79999999999999982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
       <c r="N37" s="1">
         <f>C37-D37*20-E37*0.8-F37*0.6-H37*5+I37*10+J37/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38">
-        <v>-1</v>
-      </c>
-      <c r="D38">
-        <v>0.09</v>
-      </c>
-      <c r="E38">
-        <v>-3</v>
-      </c>
-      <c r="F38">
-        <v>-2</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N38" s="1">
         <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>0.09</v>
+      </c>
+      <c r="E39">
+        <v>-3</v>
+      </c>
+      <c r="F39">
+        <v>-2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f>C39-D39*20-E39*0.8-F39*0.6-H39*5+I39*10+J39/300</f>
         <v>0.80000000000000049</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55CBA7A-37E3-4EB6-A79E-C03F80F27BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A322698-8EBD-4655-870F-6BF6B81B9854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -1125,17 +1125,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="22" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="22" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1153,7 +1153,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>2099.6999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0.80952380952380965</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2099.94</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1979.94</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>1679.94</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0.62</v>
       </c>
       <c r="E11" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F11" s="1">
         <v>-4</v>
@@ -1707,7 +1707,7 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="1">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="J11" s="1">
         <v>-70</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>-5.1333333333333329</v>
+        <v>-5.833333333333333</v>
       </c>
       <c r="P11">
         <v>0.15</v>
@@ -1737,7 +1737,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0.15</v>
       </c>
       <c r="I12" s="1">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="J12" s="1">
         <v>-117</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
-        <v>-7.1400000000000006</v>
+        <v>-6.9400000000000013</v>
       </c>
       <c r="P12">
         <v>0.12</v>
@@ -1793,7 +1793,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0.2</v>
       </c>
       <c r="I13" s="1">
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="J13" s="1">
         <v>-178</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>-7.1933333333333342</v>
+        <v>-6.8933333333333344</v>
       </c>
       <c r="P13">
         <v>0.12</v>
@@ -1849,7 +1849,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1863,17 +1863,17 @@
         <v>0.47</v>
       </c>
       <c r="E14" s="1">
+        <v>-2</v>
+      </c>
+      <c r="F14" s="1">
         <v>-1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-2</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
         <v>0.25</v>
       </c>
       <c r="I14" s="1">
-        <v>-0.14000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="J14" s="1">
         <v>-239</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>-7.8466666666666658</v>
+        <v>-7.2466666666666661</v>
       </c>
       <c r="P14">
         <v>0.12</v>
@@ -1905,7 +1905,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0.4</v>
       </c>
       <c r="I15" s="1">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="J15" s="1">
         <v>-633</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>-8.31</v>
+        <v>-7.91</v>
       </c>
       <c r="P15">
         <v>0.09</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0.6</v>
       </c>
       <c r="I16" s="1">
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="J16" s="1">
         <v>-685</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>-9.0833333333333321</v>
+        <v>-8.8833333333333329</v>
       </c>
       <c r="P16">
         <v>7.0000000000000007E-2</v>
@@ -2018,7 +2018,7 @@
         <v>899.69999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>0.2</v>
       </c>
       <c r="I21" s="1">
-        <v>-0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="J21" s="1">
         <v>-220</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="N21" s="1">
         <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
-        <v>-16.733333333333331</v>
+        <v>-16.033333333333331</v>
       </c>
       <c r="P21">
         <v>0.14000000000000001</v>
@@ -2249,7 +2249,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0.2</v>
       </c>
       <c r="I22" s="1">
-        <v>-0.13</v>
+        <v>-0.1</v>
       </c>
       <c r="J22" s="1">
         <v>-240</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>-17.3</v>
+        <v>-17</v>
       </c>
       <c r="P22">
         <v>0.14000000000000001</v>
@@ -2301,7 +2301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>-0.12</v>
+        <v>-0.08</v>
       </c>
       <c r="J26">
         <v>-250</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
-        <v>-12.433333333333332</v>
+        <v>-12.033333333333333</v>
       </c>
       <c r="P26">
         <v>0.14000000000000001</v>
@@ -2449,7 +2449,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2692,13 +2692,13 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0.20000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N38" s="1">
         <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A322698-8EBD-4655-870F-6BF6B81B9854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040AEC3A-C083-45F0-AC92-B13CC0C08502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,17 +1919,17 @@
         <v>0.34</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
         <v>0.4</v>
       </c>
       <c r="I15" s="1">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="J15" s="1">
         <v>-633</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>-7.91</v>
+        <v>-7.6100000000000012</v>
       </c>
       <c r="P15">
         <v>0.09</v>
@@ -1974,7 +1974,7 @@
         <v>0.24</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>0.6</v>
       </c>
       <c r="I16" s="1">
-        <v>-0.24</v>
+        <v>-0.2</v>
       </c>
       <c r="J16" s="1">
         <v>-685</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>-8.8833333333333329</v>
+        <v>-7.6833333333333336</v>
       </c>
       <c r="P16">
         <v>7.0000000000000007E-2</v>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040AEC3A-C083-45F0-AC92-B13CC0C08502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6299F-2E5C-435E-BEF2-AEBD3686F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2107,7 @@
         <v>-8</v>
       </c>
       <c r="D19">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="E19">
         <v>-2</v>
@@ -2129,20 +2129,17 @@
       </c>
       <c r="N19" s="1">
         <f>C19-D19*20-E19*0.8-F19*0.6-H19*5+I19*10+J19/300</f>
-        <v>-16.400000000000002</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="P19">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q19">
         <v>20</v>
       </c>
-      <c r="R19">
-        <v>0.01</v>
-      </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2156,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -2181,20 +2178,17 @@
       </c>
       <c r="N20" s="1">
         <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="P20">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q20">
         <v>14.5</v>
       </c>
-      <c r="R20">
-        <v>0.01</v>
-      </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2208,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -2233,20 +2227,17 @@
       </c>
       <c r="N21" s="1">
         <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
-        <v>-16.033333333333331</v>
+        <v>-17.033333333333339</v>
       </c>
       <c r="P21">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q21">
         <v>11</v>
       </c>
-      <c r="R21">
-        <v>0.01</v>
-      </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -2260,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
@@ -2285,20 +2276,17 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="P22">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q22">
         <v>10.6</v>
       </c>
-      <c r="R22">
-        <v>0.01</v>
-      </c>
       <c r="S22">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -2823,7 +2811,7 @@
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E39">
         <v>-3</v>
@@ -2836,7 +2824,7 @@
       </c>
       <c r="N39" s="1">
         <f>C39-D39*20-E39*0.8-F39*0.6-H39*5+I39*10+J39/300</f>
-        <v>0.80000000000000049</v>
+        <v>0.60000000000000031</v>
       </c>
     </row>
   </sheetData>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6299F-2E5C-435E-BEF2-AEBD3686F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228BA0E4-4240-435F-82BF-5E0E298CAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="H15" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2104,7 @@
         <v>63</v>
       </c>
       <c r="C19">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D19">
         <v>0.86</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="N19" s="1">
         <f>C19-D19*20-E19*0.8-F19*0.6-H19*5+I19*10+J19/300</f>
-        <v>-17.399999999999999</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="P19">
         <v>0.2</v>
@@ -2150,7 +2150,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="1">
         <v>0.68</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="N20" s="1">
         <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="P20">
         <v>0.2</v>
@@ -2215,7 +2215,7 @@
         <v>0.2</v>
       </c>
       <c r="I21" s="1">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="J21" s="1">
         <v>-220</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="N21" s="1">
         <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
-        <v>-17.033333333333339</v>
+        <v>-17.133333333333336</v>
       </c>
       <c r="P21">
         <v>0.2</v>
@@ -2257,14 +2257,14 @@
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
         <v>0.2</v>
       </c>
       <c r="I22" s="1">
-        <v>-0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="J22" s="1">
         <v>-240</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-17.2</v>
       </c>
       <c r="P22">
         <v>0.2</v>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228BA0E4-4240-435F-82BF-5E0E298CAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E9E831-91FE-4A3C-BE44-4092329FA46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +419,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,9 +772,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1126,7 +1134,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,44 +1218,44 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>-15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.89</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-12</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>-12</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>-0.3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.4</v>
       </c>
-      <c r="J3" s="1">
-        <v>550</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
+      <c r="J3" s="2">
+        <v>262</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>-0.06</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>5000</v>
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-8.6666666666666625</v>
+        <v>-9.6266666666666634</v>
       </c>
       <c r="P3">
         <v>0.18</v>
@@ -1271,44 +1279,44 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>-9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.84</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>-10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>-10</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>-0.2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.26</v>
       </c>
-      <c r="J4" s="1">
-        <v>367</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
+      <c r="J4" s="2">
+        <v>179</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <v>-0.06</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>1600</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N36" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>-6.9766666666666675</v>
+        <v>-7.6033333333333344</v>
       </c>
       <c r="P4">
         <v>0.18</v>
@@ -1333,44 +1341,44 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>-10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.92</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>-11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>-12</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>-0.22</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.26</v>
       </c>
-      <c r="J5" s="1">
-        <v>379</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="J5" s="2">
+        <v>191</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <v>-0.06</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>2000</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>-7.4366666666666692</v>
+        <v>-8.0633333333333361</v>
       </c>
       <c r="P5">
         <v>0.18</v>
@@ -1394,44 +1402,44 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>-7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>-8</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>-9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>-0.1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.16</v>
       </c>
-      <c r="J6" s="1">
-        <v>267</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
+      <c r="J6" s="2">
+        <v>131</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <v>-0.03</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>1800</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>-6.21</v>
+        <v>-6.6633333333333331</v>
       </c>
       <c r="P6">
         <v>0.15</v>
@@ -1455,44 +1463,44 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>-4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.68</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>-7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>-7</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.1</v>
       </c>
-      <c r="J7" s="1">
-        <v>140</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
+      <c r="J7" s="2">
+        <v>108</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
         <v>-0.03</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>1100</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>-6.333333333333333</v>
+        <v>-6.4399999999999995</v>
       </c>
       <c r="P7">
         <v>0.15</v>
@@ -1513,42 +1521,42 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>-3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.69</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>-6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>-6</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>-0.05</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.12</v>
       </c>
-      <c r="J8" s="1">
-        <v>100</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
+      <c r="J8" s="2">
+        <v>78</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
         <v>1200</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6166666666666636</v>
+        <v>-6.6899999999999968</v>
       </c>
       <c r="P8">
         <v>0.12</v>
@@ -1572,42 +1580,42 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>-1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.64</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>-5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>-5</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>0.05</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.04</v>
       </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="J9" s="2">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>800</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6166666666666671</v>
+        <v>-6.5</v>
       </c>
       <c r="P9">
         <v>0.12</v>
@@ -1631,42 +1639,42 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>-4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>-4</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
         <v>0.08</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>0.02</v>
       </c>
-      <c r="J10" s="1">
-        <v>-10</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
+      <c r="J10" s="2">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6333333333333337</v>
+        <v>-6.49</v>
       </c>
       <c r="P10">
         <v>0.12</v>
@@ -1684,44 +1692,44 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.62</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>-5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>-4</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>0.1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>-0.01</v>
       </c>
-      <c r="J11" s="1">
-        <v>-70</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
+      <c r="J11" s="2">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
         <v>-0.03</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>2000</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>-5.833333333333333</v>
+        <v>-5.4766666666666666</v>
       </c>
       <c r="P11">
         <v>0.15</v>
@@ -1738,42 +1746,42 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.53</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>-3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>-3</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>0.15</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>-0.04</v>
       </c>
-      <c r="J12" s="1">
-        <v>-117</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="J12" s="2">
+        <v>-34</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>1200</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
-        <v>-6.9400000000000013</v>
+        <v>-6.6633333333333349</v>
       </c>
       <c r="P12">
         <v>0.12</v>
@@ -1794,42 +1802,42 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>-3</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>0.2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J13" s="1">
-        <v>-178</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="J13" s="2">
+        <v>-72</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
         <v>1100</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>-6.8933333333333344</v>
+        <v>-6.5400000000000009</v>
       </c>
       <c r="P13">
         <v>0.12</v>
@@ -1850,42 +1858,42 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.47</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>-1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>0.25</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>-0.1</v>
       </c>
-      <c r="J14" s="1">
-        <v>-239</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
+      <c r="J14" s="2">
+        <v>-113</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
         <v>1200</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>-7.2466666666666661</v>
+        <v>-6.8266666666666662</v>
       </c>
       <c r="P14">
         <v>0.12</v>
@@ -1906,44 +1914,44 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.34</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>-1</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>0.4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>-0.15</v>
       </c>
-      <c r="J15" s="1">
-        <v>-633</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="J15" s="2">
+        <v>-266</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
         <v>0.03</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>1300</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>-7.6100000000000012</v>
+        <v>-6.3866666666666676</v>
       </c>
       <c r="P15">
         <v>0.09</v>
@@ -1961,44 +1969,44 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.24</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>0.6</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>-0.2</v>
       </c>
-      <c r="J16" s="1">
-        <v>-685</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+      <c r="J16" s="2">
+        <v>-450</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>1400</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>-7.6833333333333336</v>
+        <v>-6.9</v>
       </c>
       <c r="P16">
         <v>7.0000000000000007E-2</v>
@@ -2019,44 +2027,44 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.12</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>-0.4</v>
       </c>
-      <c r="J17" s="1">
-        <v>-700</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
+      <c r="J17" s="2">
+        <v>-866</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
         <v>0.125</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <v>2000</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>-34.733333333333334</v>
+        <v>-35.286666666666662</v>
       </c>
       <c r="P17">
         <v>0.05</v>
@@ -2074,19 +2082,19 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2097,39 +2105,42 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>-9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.86</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>-3</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>-0.2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>0.24</v>
       </c>
-      <c r="J19">
-        <v>300</v>
-      </c>
-      <c r="M19">
+      <c r="J19" s="2">
+        <v>179</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
         <v>2500</v>
       </c>
       <c r="N19" s="1">
         <f>C19-D19*20-E19*0.8-F19*0.6-H19*5+I19*10+J19/300</f>
-        <v>-18.399999999999999</v>
+        <v>-18.803333333333331</v>
       </c>
       <c r="P19">
         <v>0.2</v>
@@ -2143,42 +2154,42 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>-1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.68</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
         <v>0.02</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
+      <c r="J20" s="2">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="1">
         <f>C20-D20*20-E20*0.8-F20*0.6-H20*5+I20*10+J20/300</f>
-        <v>-18</v>
+        <v>-17.89</v>
       </c>
       <c r="P20">
         <v>0.2</v>
@@ -2192,42 +2203,42 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>0.2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>-0.06</v>
       </c>
-      <c r="J21" s="1">
-        <v>-220</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
+      <c r="J21" s="2">
+        <v>-92</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
         <v>1500</v>
       </c>
       <c r="N21" s="1">
         <f>C21-D21*20-E21*0.8-F21*0.6-H21*5+I21*10+J21/300</f>
-        <v>-17.133333333333336</v>
+        <v>-16.706666666666671</v>
       </c>
       <c r="P21">
         <v>0.2</v>
@@ -2241,42 +2252,42 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
         <v>0.2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>-0.08</v>
       </c>
-      <c r="J22" s="1">
-        <v>-240</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
+      <c r="J22" s="2">
+        <v>-109</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
         <v>1000</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>-17.2</v>
+        <v>-16.763333333333332</v>
       </c>
       <c r="P22">
         <v>0.2</v>
@@ -2290,6 +2301,19 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2300,39 +2324,42 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>-5</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.73</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>-3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>-4</v>
       </c>
-      <c r="H24">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
         <v>-0.1</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J24">
-        <v>200</v>
-      </c>
-      <c r="M24">
+      <c r="J24" s="2">
+        <v>131</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
         <v>1500</v>
       </c>
       <c r="N24" s="1">
         <f>C24-D24*20-E24*0.8-F24*0.6-H24*5+I24*10+J24/300</f>
-        <v>-12.233333333333336</v>
+        <v>-12.463333333333335</v>
       </c>
       <c r="P24">
         <v>0.14000000000000001</v>
@@ -2346,39 +2373,42 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.6</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>-30</v>
-      </c>
-      <c r="M25">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>17</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
         <v>1000</v>
       </c>
       <c r="N25" s="1">
         <f>C25-D25*20-E25*0.8-F25*0.6-H25*5+I25*10+J25/300</f>
-        <v>-12.1</v>
+        <v>-11.943333333333333</v>
       </c>
       <c r="P25">
         <v>0.14000000000000001</v>
@@ -2392,39 +2422,42 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0.47</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="H26">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
         <v>0.2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>-0.08</v>
       </c>
-      <c r="J26">
-        <v>-250</v>
-      </c>
-      <c r="M26">
+      <c r="J26" s="2">
+        <v>-135</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
         <v>1200</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
-        <v>-12.033333333333333</v>
+        <v>-11.649999999999999</v>
       </c>
       <c r="P26">
         <v>0.14000000000000001</v>
@@ -2438,6 +2471,19 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2448,39 +2494,42 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>-10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.99</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>-6</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>-7</v>
       </c>
-      <c r="H28">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
         <v>0.1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>0.32</v>
       </c>
-      <c r="J28">
-        <v>600</v>
-      </c>
-      <c r="M28">
+      <c r="J28" s="2">
+        <v>269</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
         <v>2000</v>
       </c>
       <c r="N28" s="1">
         <f>C28-D28*20-E28*0.8-F28*0.6-H28*5+I28*10+J28/300</f>
-        <v>-16.100000000000001</v>
+        <v>-17.203333333333333</v>
       </c>
       <c r="P28">
         <v>0.1</v>
@@ -2497,39 +2546,42 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>-4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.76</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>-3</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>-4</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
         <v>-0.15</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>0.24</v>
       </c>
-      <c r="J29">
-        <v>350</v>
-      </c>
-      <c r="M29">
+      <c r="J29" s="2">
+        <v>179</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
         <v>1000</v>
       </c>
       <c r="N29" s="1">
         <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
-        <v>-10.08333333333333</v>
+        <v>-10.653333333333329</v>
       </c>
       <c r="P29">
         <v>0.1</v>
@@ -2543,39 +2595,42 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>-2</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.69</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>-2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>-2</v>
       </c>
-      <c r="H30">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
         <v>-0.08</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>0.16</v>
       </c>
-      <c r="J30">
-        <v>275</v>
-      </c>
-      <c r="M30">
+      <c r="J30" s="2">
+        <v>131</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
         <v>750</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ref="N30:N31" si="3">C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
-        <v>-10.083333333333334</v>
+        <v>-10.563333333333333</v>
       </c>
       <c r="P30">
         <v>0.1</v>
@@ -2589,39 +2644,42 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
         <v>0.63</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
         <v>0.1</v>
       </c>
-      <c r="J31">
-        <v>150</v>
-      </c>
-      <c r="M31">
+      <c r="J31" s="2">
+        <v>79</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
         <v>0</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="3"/>
-        <v>-11.1</v>
+        <v>-11.336666666666666</v>
       </c>
       <c r="P31">
         <v>0.1</v>
@@ -2635,39 +2693,42 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
         <v>0.1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>-50</v>
-      </c>
-      <c r="M32">
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2">
         <v>600</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>-10.466666666666667</v>
+        <v>-10.266666666666667</v>
       </c>
       <c r="P32">
         <v>0.1</v>
@@ -2681,31 +2742,50 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>-1</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>0.08</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>-2</v>
       </c>
-      <c r="M34">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
         <v>750</v>
       </c>
       <c r="N34" s="1">
@@ -2714,25 +2794,31 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
         <v>0.06</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>-1</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>-1</v>
       </c>
-      <c r="M35">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2">
         <v>1200</v>
       </c>
       <c r="N35" s="1">
@@ -2741,25 +2827,31 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
         <v>0.1</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>-1</v>
       </c>
-      <c r="M36">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
         <v>1000</v>
       </c>
       <c r="N36" s="1">
@@ -2768,25 +2860,31 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>0.11</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
         <v>0</v>
       </c>
       <c r="N37" s="1">
@@ -2795,31 +2893,50 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="1">
         <f>C38-D38*20-E38*0.8-F38*0.6-H38*5+I38*10+J38/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>-1</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>-3</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>-2</v>
       </c>
-      <c r="M39">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2">
         <v>0</v>
       </c>
       <c r="N39" s="1">

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E9E831-91FE-4A3C-BE44-4092329FA46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FC381-1A9B-438B-83B7-52E7552E77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="5100" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,16 +1225,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="D3" s="2">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E3" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F3" s="2">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-9.6266666666666634</v>
+        <v>-6.6266666666666634</v>
       </c>
       <c r="P3">
         <v>0.18</v>
@@ -1264,11 +1264,11 @@
         <v>24</v>
       </c>
       <c r="R3">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="S3">
         <f>ROUND(Q3*0.033+P3+R3, 2)</f>
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="U3">
         <v>349.95</v>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FC381-1A9B-438B-83B7-52E7552E77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEE1075-DC27-4A8B-9ECD-CCE5FD6E9172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="5100" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,16 +1225,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="D3" s="2">
         <v>0.91</v>
       </c>
       <c r="E3" s="2">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="F3" s="2">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-6.6266666666666634</v>
+        <v>-1.4266666666666656</v>
       </c>
       <c r="P3">
         <v>0.18</v>

--- a/changes/556-barrels.xlsx
+++ b/changes/556-barrels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEE1075-DC27-4A8B-9ECD-CCE5FD6E9172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F24729-E591-4571-A422-39027176CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="5100" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="3270" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,20 +2504,20 @@
         <v>-10</v>
       </c>
       <c r="D28" s="2">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="E28" s="2">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="F28" s="2">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>0.1</v>
       </c>
       <c r="I28" s="2">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J28" s="2">
         <v>269</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="N28" s="1">
         <f>C28-D28*20-E28*0.8-F28*0.6-H28*5+I28*10+J28/300</f>
-        <v>-17.203333333333333</v>
+        <v>-15.803333333333329</v>
       </c>
       <c r="P28">
         <v>0.1</v>
@@ -2538,11 +2538,11 @@
         <v>24.409400000000002</v>
       </c>
       <c r="R28">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2559,14 +2559,14 @@
         <v>0.76</v>
       </c>
       <c r="E29" s="2">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F29" s="2">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="I29" s="2">
         <v>0.24</v>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="N29" s="1">
         <f>C29-D29*20-E29*0.8-F29*0.6-H29*5+I29*10+J29/300</f>
-        <v>-10.653333333333329</v>
+        <v>-8.303333333333331</v>
       </c>
       <c r="P29">
         <v>0.1</v>
@@ -2608,10 +2608,10 @@
         <v>0.69</v>
       </c>
       <c r="E30" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F30" s="2">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ref="N30:N31" si="3">C30-D30*20-E30*0.8-F30*0.6-H30*5+I30*10+J30/300</f>
-        <v>-10.563333333333333</v>
+        <v>-9.1633333333333304</v>
       </c>
       <c r="P30">
         <v>0.1</v>
@@ -2657,10 +2657,10 @@
         <v>0.63</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" si="3"/>
-        <v>-11.336666666666666</v>
+        <v>-9.9366666666666656</v>
       </c>
       <c r="P31">
         <v>0.1</v>
@@ -2706,7 +2706,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>-10.266666666666667</v>
+        <v>-9.4666666666666668</v>
       </c>
       <c r="P32">
         <v>0.1</v>
